--- a/public/template/print_pd.xlsx
+++ b/public/template/print_pd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\astra-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1CB1A0-E39B-4FB0-82C2-82FCB84BCA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7983F47F-A43A-45A7-8ABF-3745DA136CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,10 +1185,148 @@
     <xf numFmtId="18" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,145 +1344,90 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1356,97 +1439,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2267,7 +2267,7 @@
   <dimension ref="A2:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="81" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A8" sqref="A8:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2302,14 +2302,14 @@
     </row>
     <row r="3" spans="1:30" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2327,12 +2327,12 @@
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2375,57 +2375,57 @@
       <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:30" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
+      <c r="A7" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:30" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -2458,12 +2458,12 @@
       <c r="AD9" s="5"/>
     </row>
     <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2513,11 +2513,11 @@
       <c r="C12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="25" t="s">
         <v>51</v>
       </c>
@@ -2531,12 +2531,12 @@
         <v>3</v>
       </c>
       <c r="M12" s="24"/>
-      <c r="N12" s="104">
-        <v>0</v>
-      </c>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
+      <c r="N12" s="150">
+        <v>0</v>
+      </c>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -2554,12 +2554,12 @@
         <v>87</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="106"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="151"/>
       <c r="L13" s="31" t="s">
         <v>4</v>
       </c>
@@ -2590,46 +2590,46 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="101" t="s">
+      <c r="M14" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="101"/>
+      <c r="N14" s="147"/>
       <c r="O14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="P14" s="7"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="106"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="151"/>
     </row>
     <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="34"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="33"/>
-      <c r="M15" s="100" t="s">
+      <c r="M15" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="100"/>
+      <c r="N15" s="146"/>
       <c r="O15" s="35" t="s">
         <v>2</v>
       </c>
       <c r="P15" s="35"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="99"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="111"/>
     </row>
     <row r="16" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
@@ -2655,10 +2655,10 @@
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="150"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2703,283 +2703,283 @@
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="107" t="s">
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="114" t="s">
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="107" t="s">
+      <c r="M19" s="139"/>
+      <c r="N19" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="107" t="s">
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="108"/>
-      <c r="T19" s="108"/>
-      <c r="U19" s="109"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="135"/>
     </row>
     <row r="20" spans="1:21" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="119"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="47"/>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
       <c r="K20" s="49"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="112"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="138"/>
     </row>
     <row r="21" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="114" t="s">
+      <c r="A21" s="113"/>
+      <c r="B21" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="114" t="s">
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="110" t="s">
+      <c r="F21" s="142"/>
+      <c r="G21" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="112"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
       <c r="L21" s="50" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="110"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="112"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="138"/>
     </row>
     <row r="22" spans="1:21" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
       <c r="L22" s="46"/>
       <c r="M22" s="89"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
     </row>
     <row r="23" spans="1:21" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="128"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="105"/>
       <c r="L23" s="46"/>
       <c r="M23" s="89"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
     </row>
     <row r="24" spans="1:21" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="128"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="105"/>
       <c r="L24" s="46"/>
       <c r="M24" s="89"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
     </row>
     <row r="25" spans="1:21" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="87"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="128"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105"/>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="124"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="128"/>
     </row>
     <row r="26" spans="1:21" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="87"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="128"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
       <c r="L26" s="92"/>
       <c r="M26" s="89"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="124"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="128"/>
     </row>
     <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="143" t="s">
+      <c r="A27" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="126" t="s">
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="126" t="s">
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="126" t="s">
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="128"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="105"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="51"/>
-      <c r="F28" s="140" t="s">
+      <c r="F28" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="140" t="s">
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="140" t="s">
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="142"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="122"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="E29" s="51"/>
-      <c r="F29" s="135" t="s">
+      <c r="F29" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="117"/>
       <c r="K29" s="52"/>
       <c r="N29" s="52"/>
       <c r="U29" s="51"/>
@@ -3006,35 +3006,35 @@
       <c r="U31" s="51"/>
     </row>
     <row r="32" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="132" t="s">
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="132" t="s">
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="135" t="s">
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="O32" s="136"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="136"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="136"/>
-      <c r="T32" s="136"/>
-      <c r="U32" s="137"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="117"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
@@ -3060,15 +3060,15 @@
       <c r="U33" s="58"/>
     </row>
     <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -3086,6 +3086,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="R19:U21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="N19:Q21"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="N32:U32"/>
+    <mergeCell ref="N27:U27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="N28:U28"/>
+    <mergeCell ref="K27:M27"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="A4:F4"/>
@@ -3102,53 +3149,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="N32:U32"/>
-    <mergeCell ref="N27:U27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="N28:U28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R19:U21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="N19:Q21"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A7:U7"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="Q14:U14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -3292,88 +3292,88 @@
     </row>
     <row r="3" spans="1:39" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="157"/>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="157"/>
-      <c r="AJ3" s="157"/>
-      <c r="AK3" s="157"/>
-      <c r="AL3" s="157"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="184"/>
+      <c r="AE3" s="184"/>
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="184"/>
+      <c r="AJ3" s="184"/>
+      <c r="AK3" s="184"/>
+      <c r="AL3" s="184"/>
       <c r="AM3" s="13"/>
     </row>
     <row r="4" spans="1:39" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154"/>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="154"/>
-      <c r="AD4" s="154"/>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="154"/>
-      <c r="AK4" s="154"/>
-      <c r="AL4" s="154"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="183"/>
+      <c r="AB4" s="183"/>
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="183"/>
+      <c r="AE4" s="183"/>
+      <c r="AF4" s="183"/>
+      <c r="AG4" s="183"/>
+      <c r="AH4" s="183"/>
+      <c r="AI4" s="183"/>
+      <c r="AJ4" s="183"/>
+      <c r="AK4" s="183"/>
+      <c r="AL4" s="183"/>
       <c r="AM4" s="13"/>
     </row>
     <row r="5" spans="1:39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3409,11 +3409,11 @@
     </row>
     <row r="9" spans="1:39" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62"/>
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="63" t="s">
         <v>6</v>
       </c>
@@ -3422,51 +3422,51 @@
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
       <c r="J9" s="65"/>
-      <c r="K9" s="158">
+      <c r="K9" s="156">
         <v>44584</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="158">
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="156">
         <v>44981</v>
       </c>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="158">
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="158"/>
+      <c r="S9" s="156">
         <v>44982</v>
       </c>
-      <c r="T9" s="159"/>
-      <c r="U9" s="159"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="158">
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="156">
         <v>44983</v>
       </c>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="159"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="159"/>
-      <c r="AG9" s="159"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="170" t="s">
+      <c r="X9" s="157"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="157"/>
+      <c r="AD9" s="158"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="AJ9" s="162"/>
-      <c r="AK9" s="162"/>
-      <c r="AL9" s="163"/>
+      <c r="AJ9" s="176"/>
+      <c r="AK9" s="176"/>
+      <c r="AL9" s="177"/>
       <c r="AM9" s="66"/>
     </row>
     <row r="10" spans="1:39" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="67" t="s">
         <v>36</v>
       </c>
@@ -3475,40 +3475,40 @@
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="167" t="s">
+      <c r="K10" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="167" t="s">
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="167" t="s">
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="169"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="168"/>
-      <c r="AC10" s="168"/>
-      <c r="AD10" s="169"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="168"/>
-      <c r="AG10" s="168"/>
-      <c r="AH10" s="169"/>
-      <c r="AI10" s="171"/>
-      <c r="AJ10" s="165"/>
-      <c r="AK10" s="165"/>
-      <c r="AL10" s="166"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="159"/>
+      <c r="AB10" s="160"/>
+      <c r="AC10" s="160"/>
+      <c r="AD10" s="161"/>
+      <c r="AE10" s="159"/>
+      <c r="AF10" s="160"/>
+      <c r="AG10" s="160"/>
+      <c r="AH10" s="161"/>
+      <c r="AI10" s="178"/>
+      <c r="AJ10" s="179"/>
+      <c r="AK10" s="179"/>
+      <c r="AL10" s="180"/>
       <c r="AM10" s="70"/>
     </row>
     <row r="11" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3527,60 +3527,60 @@
       <c r="K11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="155">
-        <v>0</v>
-      </c>
-      <c r="M11" s="155"/>
-      <c r="N11" s="156"/>
+      <c r="L11" s="154">
+        <v>0</v>
+      </c>
+      <c r="M11" s="154"/>
+      <c r="N11" s="155"/>
       <c r="O11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="156"/>
+      <c r="P11" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="155"/>
       <c r="S11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T11" s="155">
-        <v>0</v>
-      </c>
-      <c r="U11" s="155"/>
-      <c r="V11" s="156"/>
+      <c r="T11" s="154">
+        <v>0</v>
+      </c>
+      <c r="U11" s="154"/>
+      <c r="V11" s="155"/>
       <c r="W11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X11" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="156"/>
+      <c r="X11" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="155"/>
       <c r="AA11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
+      <c r="AB11" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
       <c r="AE11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF11" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="155"/>
-      <c r="AH11" s="155"/>
+      <c r="AF11" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="154"/>
       <c r="AI11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ11" s="155">
+      <c r="AJ11" s="154">
         <f>SUM(P11:AH11)</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="155"/>
-      <c r="AL11" s="155"/>
+      <c r="AK11" s="154"/>
+      <c r="AL11" s="154"/>
       <c r="AM11" s="73"/>
     </row>
     <row r="12" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3599,58 +3599,58 @@
       <c r="K12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="155">
+      <c r="L12" s="154">
         <v>250000</v>
       </c>
-      <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="155"/>
       <c r="O12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="156"/>
+      <c r="P12" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="155"/>
       <c r="S12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T12" s="155">
+      <c r="T12" s="154">
         <v>230000</v>
       </c>
-      <c r="U12" s="155"/>
-      <c r="V12" s="156"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="155"/>
       <c r="W12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="156"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="155"/>
       <c r="AA12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
+      <c r="AB12" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
       <c r="AE12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF12" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="155"/>
-      <c r="AH12" s="155"/>
+      <c r="AF12" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="154"/>
+      <c r="AH12" s="154"/>
       <c r="AI12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ12" s="155">
+      <c r="AJ12" s="154">
         <f>SUM(L12:AH12)</f>
         <v>480000</v>
       </c>
-      <c r="AK12" s="155"/>
-      <c r="AL12" s="155"/>
+      <c r="AK12" s="154"/>
+      <c r="AL12" s="154"/>
       <c r="AM12" s="73"/>
     </row>
     <row r="13" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3661,60 +3661,60 @@
       <c r="K13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="155">
-        <v>0</v>
-      </c>
-      <c r="M13" s="155"/>
-      <c r="N13" s="156"/>
+      <c r="L13" s="154">
+        <v>0</v>
+      </c>
+      <c r="M13" s="154"/>
+      <c r="N13" s="155"/>
       <c r="O13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="156"/>
+      <c r="P13" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
       <c r="S13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T13" s="155">
-        <v>0</v>
-      </c>
-      <c r="U13" s="155"/>
-      <c r="V13" s="156"/>
+      <c r="T13" s="154">
+        <v>0</v>
+      </c>
+      <c r="U13" s="154"/>
+      <c r="V13" s="155"/>
       <c r="W13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X13" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
+      <c r="X13" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
       <c r="AA13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB13" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
+      <c r="AB13" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
       <c r="AE13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF13" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="155"/>
-      <c r="AH13" s="155"/>
+      <c r="AF13" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="154"/>
+      <c r="AH13" s="154"/>
       <c r="AI13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ13" s="155">
+      <c r="AJ13" s="154">
         <f t="shared" ref="AJ13:AJ21" si="0">SUM(P13:AH13)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="155"/>
-      <c r="AL13" s="155"/>
+      <c r="AK13" s="154"/>
+      <c r="AL13" s="154"/>
       <c r="AM13" s="73"/>
     </row>
     <row r="14" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3733,60 +3733,60 @@
       <c r="K14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="155">
-        <v>0</v>
-      </c>
-      <c r="M14" s="155"/>
-      <c r="N14" s="156"/>
+      <c r="L14" s="154">
+        <v>0</v>
+      </c>
+      <c r="M14" s="154"/>
+      <c r="N14" s="155"/>
       <c r="O14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="156"/>
+      <c r="P14" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="155"/>
       <c r="S14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T14" s="155">
-        <v>0</v>
-      </c>
-      <c r="U14" s="155"/>
-      <c r="V14" s="156"/>
+      <c r="T14" s="154">
+        <v>0</v>
+      </c>
+      <c r="U14" s="154"/>
+      <c r="V14" s="155"/>
       <c r="W14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X14" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
+      <c r="X14" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
       <c r="AA14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB14" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
+      <c r="AB14" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
       <c r="AE14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF14" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="155"/>
-      <c r="AH14" s="156"/>
+      <c r="AF14" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="154"/>
+      <c r="AH14" s="155"/>
       <c r="AI14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ14" s="155">
+      <c r="AJ14" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="155"/>
-      <c r="AL14" s="155"/>
+      <c r="AK14" s="154"/>
+      <c r="AL14" s="154"/>
       <c r="AM14" s="73"/>
     </row>
     <row r="15" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3804,58 +3804,58 @@
       <c r="K15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="155">
-        <v>0</v>
-      </c>
-      <c r="M15" s="155"/>
-      <c r="N15" s="156"/>
+      <c r="L15" s="154">
+        <v>0</v>
+      </c>
+      <c r="M15" s="154"/>
+      <c r="N15" s="155"/>
       <c r="O15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="155">
+      <c r="P15" s="154">
         <v>42000</v>
       </c>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="156"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="155"/>
       <c r="S15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T15" s="155">
+      <c r="T15" s="154">
         <v>40000</v>
       </c>
-      <c r="U15" s="155"/>
-      <c r="V15" s="156"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="155"/>
       <c r="W15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="156"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="155"/>
       <c r="AA15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB15" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
+      <c r="AB15" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
       <c r="AE15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF15" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="155"/>
-      <c r="AH15" s="156"/>
+      <c r="AF15" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="154"/>
+      <c r="AH15" s="155"/>
       <c r="AI15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ15" s="155">
+      <c r="AJ15" s="154">
         <f t="shared" si="0"/>
         <v>82000</v>
       </c>
-      <c r="AK15" s="155"/>
-      <c r="AL15" s="155"/>
+      <c r="AK15" s="154"/>
+      <c r="AL15" s="154"/>
       <c r="AM15" s="73"/>
     </row>
     <row r="16" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3867,58 +3867,58 @@
       <c r="K16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="156"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="155"/>
       <c r="O16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="155">
+      <c r="P16" s="154">
         <v>280000</v>
       </c>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="156"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="155"/>
       <c r="S16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T16" s="155">
-        <v>0</v>
-      </c>
-      <c r="U16" s="155"/>
-      <c r="V16" s="156"/>
+      <c r="T16" s="154">
+        <v>0</v>
+      </c>
+      <c r="U16" s="154"/>
+      <c r="V16" s="155"/>
       <c r="W16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X16" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="155"/>
+      <c r="X16" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
       <c r="AA16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB16" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
+      <c r="AB16" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
       <c r="AE16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF16" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="155"/>
-      <c r="AH16" s="156"/>
+      <c r="AF16" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="155"/>
       <c r="AI16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ16" s="155">
+      <c r="AJ16" s="154">
         <f>SUM(L16:AH16)</f>
         <v>280000</v>
       </c>
-      <c r="AK16" s="155"/>
-      <c r="AL16" s="155"/>
+      <c r="AK16" s="154"/>
+      <c r="AL16" s="154"/>
       <c r="AM16" s="73"/>
     </row>
     <row r="17" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3937,60 +3937,60 @@
       <c r="K17" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="155">
-        <v>0</v>
-      </c>
-      <c r="M17" s="155"/>
-      <c r="N17" s="156"/>
+      <c r="L17" s="154">
+        <v>0</v>
+      </c>
+      <c r="M17" s="154"/>
+      <c r="N17" s="155"/>
       <c r="O17" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="156"/>
+      <c r="P17" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="155"/>
       <c r="S17" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T17" s="155">
-        <v>0</v>
-      </c>
-      <c r="U17" s="155"/>
-      <c r="V17" s="156"/>
+      <c r="T17" s="154">
+        <v>0</v>
+      </c>
+      <c r="U17" s="154"/>
+      <c r="V17" s="155"/>
       <c r="W17" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X17" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155"/>
+      <c r="X17" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
       <c r="AA17" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB17" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="155"/>
-      <c r="AD17" s="155"/>
+      <c r="AB17" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
       <c r="AE17" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF17" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="155"/>
-      <c r="AH17" s="156"/>
+      <c r="AF17" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="155"/>
       <c r="AI17" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ17" s="155">
+      <c r="AJ17" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="155"/>
-      <c r="AL17" s="155"/>
+      <c r="AK17" s="154"/>
+      <c r="AL17" s="154"/>
       <c r="AM17" s="73"/>
     </row>
     <row r="18" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4001,60 +4001,60 @@
       <c r="K18" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="155">
-        <v>0</v>
-      </c>
-      <c r="M18" s="155"/>
-      <c r="N18" s="156"/>
+      <c r="L18" s="154">
+        <v>0</v>
+      </c>
+      <c r="M18" s="154"/>
+      <c r="N18" s="155"/>
       <c r="O18" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
+      <c r="P18" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="155"/>
       <c r="S18" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T18" s="155">
-        <v>0</v>
-      </c>
-      <c r="U18" s="155"/>
-      <c r="V18" s="156"/>
+      <c r="T18" s="154">
+        <v>0</v>
+      </c>
+      <c r="U18" s="154"/>
+      <c r="V18" s="155"/>
       <c r="W18" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X18" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="155"/>
+      <c r="X18" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
       <c r="AA18" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB18" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="155"/>
+      <c r="AB18" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
       <c r="AE18" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF18" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="155"/>
-      <c r="AH18" s="156"/>
+      <c r="AF18" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="155"/>
       <c r="AI18" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ18" s="155">
+      <c r="AJ18" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="155"/>
-      <c r="AL18" s="155"/>
+      <c r="AK18" s="154"/>
+      <c r="AL18" s="154"/>
       <c r="AM18" s="73"/>
     </row>
     <row r="19" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4073,60 +4073,60 @@
       <c r="K19" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="155">
-        <v>0</v>
-      </c>
-      <c r="M19" s="155"/>
-      <c r="N19" s="156"/>
+      <c r="L19" s="154">
+        <v>0</v>
+      </c>
+      <c r="M19" s="154"/>
+      <c r="N19" s="155"/>
       <c r="O19" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
+      <c r="P19" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="155"/>
       <c r="S19" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T19" s="155">
-        <v>0</v>
-      </c>
-      <c r="U19" s="155"/>
-      <c r="V19" s="156"/>
+      <c r="T19" s="154">
+        <v>0</v>
+      </c>
+      <c r="U19" s="154"/>
+      <c r="V19" s="155"/>
       <c r="W19" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X19" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
+      <c r="X19" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="154"/>
+      <c r="Z19" s="154"/>
       <c r="AA19" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB19" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
+      <c r="AB19" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="154"/>
+      <c r="AD19" s="154"/>
       <c r="AE19" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF19" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="155"/>
-      <c r="AH19" s="156"/>
+      <c r="AF19" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="155"/>
       <c r="AI19" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ19" s="155">
+      <c r="AJ19" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="155"/>
-      <c r="AL19" s="155"/>
+      <c r="AK19" s="154"/>
+      <c r="AL19" s="154"/>
       <c r="AM19" s="73"/>
     </row>
     <row r="20" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4137,54 +4137,54 @@
       <c r="K20" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="156"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="155"/>
       <c r="O20" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="156"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="155"/>
       <c r="S20" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="156"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="155"/>
       <c r="W20" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X20" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
+      <c r="X20" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
       <c r="AA20" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB20" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
+      <c r="AB20" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
       <c r="AE20" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF20" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="155"/>
-      <c r="AH20" s="156"/>
+      <c r="AF20" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="155"/>
       <c r="AI20" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ20" s="155">
+      <c r="AJ20" s="154">
         <f>SUM(L20:AH20)</f>
         <v>0</v>
       </c>
-      <c r="AK20" s="155"/>
-      <c r="AL20" s="155"/>
+      <c r="AK20" s="154"/>
+      <c r="AL20" s="154"/>
       <c r="AM20" s="73"/>
     </row>
     <row r="21" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4203,60 +4203,60 @@
       <c r="K21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="155">
-        <v>0</v>
-      </c>
-      <c r="M21" s="155"/>
-      <c r="N21" s="156"/>
+      <c r="L21" s="154">
+        <v>0</v>
+      </c>
+      <c r="M21" s="154"/>
+      <c r="N21" s="155"/>
       <c r="O21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="156"/>
+      <c r="P21" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="155"/>
       <c r="S21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T21" s="155">
-        <v>0</v>
-      </c>
-      <c r="U21" s="155"/>
-      <c r="V21" s="156"/>
+      <c r="T21" s="154">
+        <v>0</v>
+      </c>
+      <c r="U21" s="154"/>
+      <c r="V21" s="155"/>
       <c r="W21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X21" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
+      <c r="X21" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="154"/>
+      <c r="Z21" s="154"/>
       <c r="AA21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB21" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
+      <c r="AB21" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="154"/>
+      <c r="AD21" s="154"/>
       <c r="AE21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF21" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="155"/>
-      <c r="AH21" s="156"/>
+      <c r="AF21" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="155"/>
       <c r="AI21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ21" s="155">
+      <c r="AJ21" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="155"/>
-      <c r="AL21" s="155"/>
+      <c r="AK21" s="154"/>
+      <c r="AL21" s="154"/>
       <c r="AM21" s="77"/>
     </row>
     <row r="22" spans="1:39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4275,58 +4275,58 @@
       <c r="K22" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="155">
-        <v>0</v>
-      </c>
-      <c r="M22" s="155"/>
-      <c r="N22" s="156"/>
+      <c r="L22" s="154">
+        <v>0</v>
+      </c>
+      <c r="M22" s="154"/>
+      <c r="N22" s="155"/>
       <c r="O22" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="155">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
+      <c r="P22" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="155"/>
       <c r="S22" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="156"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="155"/>
       <c r="W22" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="X22" s="155">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
+      <c r="X22" s="154">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
       <c r="AA22" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="155">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="155"/>
+      <c r="AB22" s="154">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="154"/>
+      <c r="AD22" s="154"/>
       <c r="AE22" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AF22" s="155">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="155"/>
-      <c r="AH22" s="155"/>
+      <c r="AF22" s="154">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="154"/>
       <c r="AI22" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AJ22" s="155">
+      <c r="AJ22" s="154">
         <f>SUM(P22:AH22)</f>
         <v>0</v>
       </c>
-      <c r="AK22" s="155"/>
-      <c r="AL22" s="155"/>
+      <c r="AK22" s="154"/>
+      <c r="AL22" s="154"/>
       <c r="AM22" s="77" t="s">
         <v>29</v>
       </c>
@@ -4347,66 +4347,66 @@
       <c r="K23" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="186">
+      <c r="L23" s="162">
         <f>SUM(L12:N22)</f>
         <v>250000</v>
       </c>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
       <c r="O23" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="181">
+      <c r="P23" s="163">
         <f>SUM(P12:R22)</f>
         <v>322000</v>
       </c>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="163"/>
       <c r="S23" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="T23" s="181">
+      <c r="T23" s="163">
         <f>SUM(T11:T22)</f>
         <v>270000</v>
       </c>
-      <c r="U23" s="181"/>
-      <c r="V23" s="181"/>
+      <c r="U23" s="163"/>
+      <c r="V23" s="163"/>
       <c r="W23" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="X23" s="182">
+      <c r="X23" s="173">
         <f>SUM(X12:Z22)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="182"/>
-      <c r="Z23" s="182"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
       <c r="AA23" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="AB23" s="181">
+      <c r="AB23" s="163">
         <f>SUM(AB12:AD22)</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="181"/>
-      <c r="AD23" s="181"/>
+      <c r="AC23" s="163"/>
+      <c r="AD23" s="163"/>
       <c r="AE23" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="AF23" s="181">
+      <c r="AF23" s="163">
         <f>SUM(AF11:AF22)</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="181"/>
-      <c r="AH23" s="181"/>
+      <c r="AG23" s="163"/>
+      <c r="AH23" s="163"/>
       <c r="AI23" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="AJ23" s="181">
+      <c r="AJ23" s="163">
         <f>SUM(AJ11:AL21)</f>
         <v>842000</v>
       </c>
-      <c r="AK23" s="181"/>
-      <c r="AL23" s="181"/>
+      <c r="AK23" s="163"/>
+      <c r="AL23" s="163"/>
       <c r="AM23" s="70"/>
     </row>
     <row r="24" spans="1:39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4472,14 +4472,14 @@
     </row>
     <row r="26" spans="1:39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="59"/>
-      <c r="B26" s="152" t="s">
+      <c r="B26" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="182"/>
       <c r="H26" s="60"/>
       <c r="J26" s="61"/>
       <c r="O26" s="86"/>
@@ -4490,15 +4490,15 @@
       <c r="T26" s="86"/>
       <c r="V26" s="61"/>
       <c r="AD26" s="61"/>
-      <c r="AF26" s="178">
+      <c r="AF26" s="170">
         <f>AJ23</f>
         <v>842000</v>
       </c>
-      <c r="AG26" s="179"/>
-      <c r="AH26" s="179"/>
-      <c r="AI26" s="179"/>
-      <c r="AJ26" s="179"/>
-      <c r="AK26" s="180"/>
+      <c r="AG26" s="171"/>
+      <c r="AH26" s="171"/>
+      <c r="AI26" s="171"/>
+      <c r="AJ26" s="171"/>
+      <c r="AK26" s="172"/>
       <c r="AM26" s="61"/>
     </row>
     <row r="27" spans="1:39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4519,14 +4519,14 @@
       <c r="X28" s="86"/>
       <c r="AB28" s="86"/>
       <c r="AD28" s="61"/>
-      <c r="AF28" s="175">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="176"/>
-      <c r="AH28" s="176"/>
-      <c r="AI28" s="176"/>
-      <c r="AJ28" s="176"/>
-      <c r="AK28" s="177"/>
+      <c r="AF28" s="167">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="168"/>
+      <c r="AH28" s="168"/>
+      <c r="AI28" s="168"/>
+      <c r="AJ28" s="168"/>
+      <c r="AK28" s="169"/>
       <c r="AM28" s="61"/>
     </row>
     <row r="29" spans="1:39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4541,41 +4541,41 @@
     </row>
     <row r="30" spans="1:39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="59"/>
-      <c r="B30" s="184" t="s">
+      <c r="B30" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="183" t="s">
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="L30" s="173"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="173"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
+      <c r="U30" s="165"/>
       <c r="V30" s="61"/>
-      <c r="W30" s="172" t="s">
+      <c r="W30" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="174"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="165"/>
+      <c r="AB30" s="165"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="166"/>
       <c r="AM30" s="61"/>
     </row>
     <row r="31" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4621,6 +4621,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="B3:AL3"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AD9"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="AI9:AL10"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AF28:AK28"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="K30:U30"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="T21:V21"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="P11:R11"/>
     <mergeCell ref="X11:Z11"/>
@@ -4645,95 +4734,6 @@
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="P21:R21"/>
     <mergeCell ref="P13:R13"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W30:AD30"/>
-    <mergeCell ref="AF28:AK28"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="K30:U30"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="AI9:AL10"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="B3:AL3"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="AA9:AD9"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="AE10:AH10"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AF11:AH11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4800,13 +4800,13 @@
       <c r="A7" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="22" t="s">
         <v>25</v>
       </c>
@@ -4815,11 +4815,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="22" t="s">
         <v>25</v>
       </c>
@@ -4845,11 +4845,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="22" t="s">
         <v>25</v>
       </c>
